--- a/individual_case_outputs/harvard/518.xlsx
+++ b/individual_case_outputs/harvard/518.xlsx
@@ -542,7 +542,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>acute pharyngitis</t>
+          <t>infectious mononucleosis</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>acute pharyngitis</t>
+          <t>tonsillitis/ start treatment</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -654,11 +654,7 @@
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>acute pharyngitis</t>
-        </is>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
         <is>
           <t>peritonsillar abscesses</t>
